--- a/image/evidence.xlsx
+++ b/image/evidence.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="341">
   <si>
     <t>Path</t>
   </si>
@@ -968,10 +968,19 @@
     <t>Evidence.population.evidenceVariable.statisticCollection.statistic</t>
   </si>
   <si>
-    <t>The statistic value(s)</t>
-  </si>
-  <si>
-    <t>The statistic value(s).</t>
+    <t>The statistic value(s) - sb type Statistic</t>
+  </si>
+  <si>
+    <t>The statistic value(s) - sb type Statistic.</t>
+  </si>
+  <si>
+    <t>Evidence.population.evidenceVariable.distribution</t>
+  </si>
+  <si>
+    <t>Ordered distribution - sb type OrderedDistribution</t>
+  </si>
+  <si>
+    <t>Ordered distribution - sb type OrderedDistribution.</t>
   </si>
   <si>
     <t>Evidence.population.evidenceVariable.nestedVariable</t>
@@ -1192,7 +1201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM91"/>
+  <dimension ref="A1:AM92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8767,7 +8776,7 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>310</v>
@@ -8836,7 +8845,7 @@
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>40</v>
@@ -8864,7 +8873,7 @@
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -8876,13 +8885,13 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>185</v>
+        <v>313</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8933,19 +8942,19 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>187</v>
+        <v>312</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>40</v>
@@ -8954,7 +8963,7 @@
         <v>40</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -8962,18 +8971,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -8985,17 +8994,15 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9044,13 +9051,13 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9073,11 +9080,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9090,26 +9097,24 @@
         <v>40</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9157,7 +9162,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9178,7 +9183,7 @@
         <v>40</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
@@ -9186,39 +9191,43 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9266,13 +9275,13 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>315</v>
+        <v>196</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9287,7 +9296,7 @@
         <v>40</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>40</v>
@@ -9295,7 +9304,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9306,7 +9315,7 @@
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
@@ -9318,13 +9327,13 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9375,13 +9384,13 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
@@ -9404,7 +9413,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9415,7 +9424,7 @@
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
@@ -9427,13 +9436,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9460,13 +9469,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9484,13 +9493,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9513,7 +9522,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9521,7 +9530,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>48</v>
@@ -9533,16 +9542,16 @@
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9569,13 +9578,13 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
@@ -9593,10 +9602,10 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>48</v>
@@ -9622,7 +9631,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9630,10 +9639,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
@@ -9642,16 +9651,16 @@
         <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9702,19 +9711,19 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>40</v>
@@ -9731,7 +9740,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9742,7 +9751,7 @@
         <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>40</v>
@@ -9754,13 +9763,13 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>185</v>
+        <v>291</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9811,19 +9820,19 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>187</v>
+        <v>322</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>40</v>
@@ -9832,7 +9841,7 @@
         <v>40</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>40</v>
@@ -9840,18 +9849,18 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>40</v>
@@ -9863,17 +9872,15 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -9922,13 +9929,13 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
@@ -9951,11 +9958,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -9968,26 +9975,24 @@
         <v>40</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10035,7 +10040,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10056,7 +10061,7 @@
         <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
@@ -10064,39 +10069,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>297</v>
+        <v>194</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>40</v>
       </c>
@@ -10144,13 +10153,13 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
@@ -10165,7 +10174,7 @@
         <v>40</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -10173,7 +10182,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10184,7 +10193,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>40</v>
@@ -10196,13 +10205,13 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10253,13 +10262,13 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -10282,7 +10291,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10293,7 +10302,7 @@
         <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>40</v>
@@ -10305,13 +10314,13 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10338,13 +10347,13 @@
         <v>40</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>40</v>
@@ -10362,13 +10371,13 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
@@ -10391,7 +10400,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10417,10 +10426,10 @@
         <v>222</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10450,10 +10459,10 @@
         <v>225</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>40</v>
@@ -10471,7 +10480,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10500,7 +10509,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10511,7 +10520,7 @@
         <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>40</v>
@@ -10523,13 +10532,13 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10556,13 +10565,13 @@
         <v>40</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>40</v>
@@ -10580,19 +10589,19 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>40</v>
@@ -10620,7 +10629,7 @@
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
@@ -10632,13 +10641,13 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>186</v>
+        <v>332</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10689,19 +10698,19 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>40</v>
@@ -10710,7 +10719,7 @@
         <v>40</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -10718,18 +10727,18 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>40</v>
@@ -10741,17 +10750,15 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -10800,13 +10807,13 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>40</v>
@@ -10829,11 +10836,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -10846,26 +10853,24 @@
         <v>40</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N88" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>40</v>
       </c>
@@ -10913,7 +10918,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -10934,7 +10939,7 @@
         <v>40</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
@@ -10942,39 +10947,43 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>40</v>
       </c>
@@ -10998,13 +11007,13 @@
         <v>40</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>40</v>
@@ -11022,13 +11031,13 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>333</v>
+        <v>196</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>40</v>
@@ -11043,7 +11052,7 @@
         <v>40</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>40</v>
@@ -11051,7 +11060,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11059,7 +11068,7 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>48</v>
@@ -11071,16 +11080,16 @@
         <v>40</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11107,13 +11116,13 @@
         <v>40</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>40</v>
@@ -11131,10 +11140,10 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>48</v>
@@ -11171,7 +11180,7 @@
         <v>48</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>40</v>
@@ -11183,13 +11192,13 @@
         <v>49</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>162</v>
+        <v>287</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11246,24 +11255,133 @@
         <v>48</v>
       </c>
       <c r="AG91" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F92" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
+      <c r="G92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>40</v>
       </c>
     </row>

--- a/image/evidence.xlsx
+++ b/image/evidence.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="343">
   <si>
     <t>Path</t>
   </si>
@@ -968,19 +968,27 @@
     <t>Evidence.population.evidenceVariable.statisticCollection.statistic</t>
   </si>
   <si>
-    <t>The statistic value(s) - sb type Statistic</t>
-  </si>
-  <si>
-    <t>The statistic value(s) - sb type Statistic.</t>
+    <t xml:space="preserve">Statistic
+</t>
+  </si>
+  <si>
+    <t>The statistic value(s)</t>
+  </si>
+  <si>
+    <t>The statistic value(s).</t>
   </si>
   <si>
     <t>Evidence.population.evidenceVariable.distribution</t>
   </si>
   <si>
-    <t>Ordered distribution - sb type OrderedDistribution</t>
-  </si>
-  <si>
-    <t>Ordered distribution - sb type OrderedDistribution.</t>
+    <t xml:space="preserve">OrderedDistribution
+</t>
+  </si>
+  <si>
+    <t>Ordered distribution</t>
+  </si>
+  <si>
+    <t>Ordered distribution.</t>
   </si>
   <si>
     <t>Evidence.population.evidenceVariable.nestedVariable</t>
@@ -8667,13 +8675,13 @@
         <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>162</v>
+        <v>307</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8753,7 +8761,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8776,13 +8784,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8833,7 +8841,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8862,7 +8870,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8888,10 +8896,10 @@
         <v>180</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8942,7 +8950,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -8971,7 +8979,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9080,7 +9088,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9191,7 +9199,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9304,7 +9312,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9384,7 +9392,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9413,7 +9421,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9493,7 +9501,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9522,7 +9530,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9602,7 +9610,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9631,7 +9639,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9711,7 +9719,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>48</v>
@@ -9740,7 +9748,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9820,7 +9828,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -9849,7 +9857,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9958,7 +9966,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10069,7 +10077,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10182,7 +10190,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10262,7 +10270,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10291,7 +10299,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10371,7 +10379,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10400,7 +10408,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10480,7 +10488,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10509,7 +10517,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10589,7 +10597,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10618,7 +10626,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10644,10 +10652,10 @@
         <v>180</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10698,7 +10706,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10727,7 +10735,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10836,7 +10844,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10947,7 +10955,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11060,7 +11068,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11140,7 +11148,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11169,7 +11177,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11195,10 +11203,10 @@
         <v>287</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11249,7 +11257,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>48</v>
@@ -11278,7 +11286,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11301,13 +11309,13 @@
         <v>49</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>162</v>
+        <v>307</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11358,7 +11366,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>48</v>

--- a/image/evidence.xlsx
+++ b/image/evidence.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="341">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>A collection of evidence focused statistics</t>
+    <t>A collection of evidence focused statistics, considered a summary of evidence</t>
   </si>
   <si>
     <t>The representation of a collection of statistics for a given population and set of evidence variables.</t>
@@ -470,7 +470,7 @@
 </t>
   </si>
   <si>
-    <t>Use conte3xt</t>
+    <t>Use contetxt</t>
   </si>
   <si>
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate evidence instances.</t>
@@ -671,10 +671,10 @@
 </t>
   </si>
   <si>
-    <t>Link to artifact associated with summary</t>
-  </si>
-  <si>
-    <t>Link to artifact associated with summary.</t>
+    <t>Link or citation to artifact associated with the summary</t>
+  </si>
+  <si>
+    <t>Link or citation to artifact associated with the summary.</t>
   </si>
   <si>
     <t>Evidence.description</t>
@@ -763,7 +763,10 @@
     <t>Evidence.population.description</t>
   </si>
   <si>
-    <t>Description of the particular summary.</t>
+    <t>Textual description of population</t>
+  </si>
+  <si>
+    <t>Textual description of population.</t>
   </si>
   <si>
     <t>Evidence.population.note</t>
@@ -776,10 +779,10 @@
 </t>
   </si>
   <si>
-    <t>The evidence that the summary indirectly represents</t>
-  </si>
-  <si>
-    <t>The evidence that the summary indirectly represents.</t>
+    <t>Descriptive (not actual) expression of the population this evidence is about, eg inclusion criteria for research study</t>
+  </si>
+  <si>
+    <t>Descriptive (not actual) expression of the population this evidence is about, eg inclusion criteria for research study.</t>
   </si>
   <si>
     <t>Evidence.population.sampleCohort</t>
@@ -789,10 +792,10 @@
 </t>
   </si>
   <si>
-    <t>The evidence from which the sample was drawn</t>
-  </si>
-  <si>
-    <t>The evidence from which the sample was drawn.</t>
+    <t>Summary statistics describing the actual group for this population</t>
+  </si>
+  <si>
+    <t>Summary statistics describing the actual group for this population.</t>
   </si>
   <si>
     <t>The target reference must conform to the CohortSummary profile.</t>
@@ -801,19 +804,19 @@
     <t>Evidence.population.actualCohort</t>
   </si>
   <si>
-    <t>The evidence that the summary directly reprresents</t>
-  </si>
-  <si>
-    <t>The evidence that the summary directly reprresents.</t>
+    <t>The actual group (ie list of members) for this population</t>
+  </si>
+  <si>
+    <t>The actual group (ie list of members) for this population.</t>
   </si>
   <si>
     <t>Evidence.population.sampleSize</t>
   </si>
   <si>
-    <t>Sample description</t>
-  </si>
-  <si>
-    <t>Sample description.</t>
+    <t>Sample size for the population</t>
+  </si>
+  <si>
+    <t>Sample size for the population.</t>
   </si>
   <si>
     <t>Evidence.population.sampleSize.id</t>
@@ -828,10 +831,10 @@
     <t>Evidence.population.sampleSize.description</t>
   </si>
   <si>
-    <t>Description of the sample size</t>
-  </si>
-  <si>
-    <t>Description of the sample size.</t>
+    <t>Textual description of population sample</t>
+  </si>
+  <si>
+    <t>Textual description of population sample.</t>
   </si>
   <si>
     <t>Evidence.population.sampleSize.note</t>
@@ -911,19 +914,19 @@
 </t>
   </si>
   <si>
-    <t>The definition of a nested variable</t>
-  </si>
-  <si>
-    <t>The definition of a nested variable.</t>
+    <t>Definition of a variable related to the statistic(s)</t>
+  </si>
+  <si>
+    <t>Definition of a variable related to the statistic(s).</t>
   </si>
   <si>
     <t>Evidence.population.evidenceVariable.statisticCollection</t>
   </si>
   <si>
-    <t>Set of statistics associated with variable</t>
-  </si>
-  <si>
-    <t>Set of statistics associated with variable.</t>
+    <t>Set of statistics</t>
+  </si>
+  <si>
+    <t>Set of statistics.</t>
   </si>
   <si>
     <t>Evidence.population.evidenceVariable.statisticCollection.id</t>
@@ -938,22 +941,16 @@
     <t>Evidence.population.evidenceVariable.statisticCollection.description</t>
   </si>
   <si>
-    <t>Description of statistic</t>
-  </si>
-  <si>
-    <t>Description of statistic.</t>
+    <t>Textual description related to the set of statistics</t>
+  </si>
+  <si>
+    <t>Textual description related to the set of statistics.</t>
   </si>
   <si>
     <t>Evidence.population.evidenceVariable.statisticCollection.note</t>
   </si>
   <si>
     <t>Evidence.population.evidenceVariable.statisticCollection.synthesisType</t>
-  </si>
-  <si>
-    <t>The type of synthesis statistic</t>
-  </si>
-  <si>
-    <t>The type of synthesis statistic.</t>
   </si>
   <si>
     <t>Evidence.population.evidenceVariable.statisticCollection.studyType</t>
@@ -972,32 +969,32 @@
 </t>
   </si>
   <si>
-    <t>The statistic value(s)</t>
-  </si>
-  <si>
-    <t>The statistic value(s).</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.distribution</t>
+    <t>Values and parameters for a single statistic</t>
+  </si>
+  <si>
+    <t>Values and parameters for a single statistic.</t>
+  </si>
+  <si>
+    <t>Evidence.population.evidenceVariable.statisticCollection.distribution</t>
   </si>
   <si>
     <t xml:space="preserve">OrderedDistribution
 </t>
   </si>
   <si>
-    <t>Ordered distribution</t>
-  </si>
-  <si>
-    <t>Ordered distribution.</t>
+    <t>An ordered group of statistics</t>
+  </si>
+  <si>
+    <t>An ordered group of statistics.</t>
   </si>
   <si>
     <t>Evidence.population.evidenceVariable.nestedVariable</t>
   </si>
   <si>
-    <t>Dependent evvidence variable</t>
-  </si>
-  <si>
-    <t>Dependent evvidence variable.</t>
+    <t>An evidence variable, nested for denoting that statistics relate to both this variable and the previously noted variable</t>
+  </si>
+  <si>
+    <t>An evidence variable, nested for denoting that statistics relate to both this variable and the previously noted variable.</t>
   </si>
   <si>
     <t>Evidence.population.evidenceVariable.nestedVariable.id</t>
@@ -1048,10 +1045,10 @@
     <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.additionalVariable</t>
   </si>
   <si>
-    <t>Additional variables</t>
-  </si>
-  <si>
-    <t>Additional variables.</t>
+    <t>An evidence variable, nested for denoting that statistics relate to this variable, any additional variables, plus the two previously noted variables</t>
+  </si>
+  <si>
+    <t>An evidence variable, nested for denoting that statistics relate to this variable, any additional variables, plus the two previously noted variables.</t>
   </si>
   <si>
     <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.additionalVariable.id</t>
@@ -1069,13 +1066,10 @@
     <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.additionalVariable.variableDefinition</t>
   </si>
   <si>
-    <t>Definition of additional variable</t>
-  </si>
-  <si>
-    <t>Definition of additional variable.</t>
-  </si>
-  <si>
     <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.statistic</t>
+  </si>
+  <si>
+    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.distribution</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM92"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1228,7 +1222,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="128.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5497,10 +5491,10 @@
         <v>162</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5580,7 +5574,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5660,7 +5654,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5689,7 +5683,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5712,13 +5706,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5769,7 +5763,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5798,7 +5792,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5821,16 +5815,16 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5880,7 +5874,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5909,7 +5903,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5932,13 +5926,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5989,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6018,7 +6012,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6044,10 +6038,10 @@
         <v>180</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6098,7 +6092,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6127,7 +6121,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6236,7 +6230,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6347,7 +6341,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6460,7 +6454,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6486,10 +6480,10 @@
         <v>119</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6540,7 +6534,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6569,7 +6563,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6649,7 +6643,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6678,7 +6672,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6701,13 +6695,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6758,7 +6752,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6787,7 +6781,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6810,13 +6804,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6867,7 +6861,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6896,7 +6890,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6922,10 +6916,10 @@
         <v>180</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6976,7 +6970,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7005,7 +6999,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7114,7 +7108,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7225,7 +7219,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7338,7 +7332,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7364,10 +7358,10 @@
         <v>162</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7418,7 +7412,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7447,7 +7441,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7527,7 +7521,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7556,7 +7550,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7582,10 +7576,10 @@
         <v>67</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7615,10 +7609,10 @@
         <v>140</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
@@ -7636,7 +7630,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7665,7 +7659,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7688,13 +7682,13 @@
         <v>49</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7745,7 +7739,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>48</v>
@@ -7774,7 +7768,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7800,10 +7794,10 @@
         <v>180</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7854,7 +7848,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7883,7 +7877,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7992,7 +7986,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8103,7 +8097,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8216,7 +8210,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8242,10 +8236,10 @@
         <v>162</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8296,7 +8290,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8325,7 +8319,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8405,7 +8399,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8434,7 +8428,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8460,10 +8454,10 @@
         <v>222</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8514,7 +8508,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8543,7 +8537,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8569,10 +8563,10 @@
         <v>222</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8623,7 +8617,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8652,7 +8646,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8675,13 +8669,13 @@
         <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8732,7 +8726,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>48</v>
@@ -8761,7 +8755,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8784,13 +8778,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8841,7 +8835,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8870,7 +8864,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8896,10 +8890,10 @@
         <v>180</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8950,7 +8944,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -8979,7 +8973,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9088,7 +9082,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9199,7 +9193,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9312,7 +9306,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9338,10 +9332,10 @@
         <v>162</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9392,7 +9386,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9421,7 +9415,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9501,7 +9495,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9530,7 +9524,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9556,10 +9550,10 @@
         <v>67</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9589,10 +9583,10 @@
         <v>140</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
@@ -9610,7 +9604,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9639,7 +9633,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9662,13 +9656,13 @@
         <v>49</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9719,7 +9713,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>48</v>
@@ -9748,7 +9742,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9774,10 +9768,10 @@
         <v>180</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9828,7 +9822,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -9857,7 +9851,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9966,7 +9960,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10077,7 +10071,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10190,7 +10184,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10216,10 +10210,10 @@
         <v>162</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10270,7 +10264,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10299,7 +10293,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10379,7 +10373,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10408,7 +10402,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10434,10 +10428,10 @@
         <v>222</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10488,7 +10482,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10517,7 +10511,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10543,10 +10537,10 @@
         <v>222</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10597,7 +10591,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10626,7 +10620,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10652,10 +10646,10 @@
         <v>180</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10706,7 +10700,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10735,7 +10729,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10844,7 +10838,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10955,7 +10949,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11068,7 +11062,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11094,10 +11088,10 @@
         <v>67</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11127,10 +11121,10 @@
         <v>140</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>40</v>
@@ -11148,7 +11142,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11177,7 +11171,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11200,13 +11194,13 @@
         <v>49</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11257,7 +11251,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>48</v>
@@ -11286,7 +11280,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11309,13 +11303,13 @@
         <v>49</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11366,7 +11360,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>48</v>
@@ -11390,6 +11384,115 @@
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>40</v>
       </c>
     </row>

--- a/image/evidence.xlsx
+++ b/image/evidence.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="345">
   <si>
     <t>Path</t>
   </si>
@@ -683,7 +683,7 @@
     <t>Description of the particular summary</t>
   </si>
   <si>
-    <t>A free text natural language description of the evidence from a consumer's perspective.</t>
+    <t>ASM edit.</t>
   </si>
   <si>
     <t>This description can be used to capture details such as why the evidence was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the evidence as conveyed in the 'text' field of the resource itself. This item SHOULD be populated unless the information is available from context (e.g. the language of the evidence is presumed to be the predominant language in the place the evidence was created).</t>
@@ -740,6 +740,19 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/study-type</t>
+  </si>
+  <si>
+    <t>Evidence.locked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Root value</t>
+  </si>
+  <si>
+    <t>Root value def.</t>
   </si>
   <si>
     <t>Evidence.population</t>
@@ -1203,7 +1216,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM93"/>
+  <dimension ref="A1:AM94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1212,45 +1225,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="98.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="99.5390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="128.2421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="128.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="78.8125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="97.625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="78.31640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="99.19921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="23.71875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.28515625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5034,7 +5047,7 @@
         <v>48</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -5046,13 +5059,13 @@
         <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5109,13 +5122,13 @@
         <v>48</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
@@ -5132,7 +5145,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5140,10 +5153,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5152,16 +5165,16 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5212,19 +5225,19 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
@@ -5233,7 +5246,7 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5241,18 +5254,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5264,17 +5277,15 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5323,13 +5334,13 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5352,11 +5363,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5369,26 +5380,24 @@
         <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5436,7 +5445,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5457,7 +5466,7 @@
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5465,39 +5474,43 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5545,13 +5558,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5566,7 +5579,7 @@
         <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5574,7 +5587,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5585,7 +5598,7 @@
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5597,13 +5610,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5654,13 +5667,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5683,7 +5696,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5694,7 +5707,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5706,13 +5719,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5763,13 +5776,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5823,9 +5836,7 @@
       <c r="L42" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>251</v>
-      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5903,7 +5914,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5926,7 +5937,7 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>253</v>
@@ -5934,7 +5945,9 @@
       <c r="L43" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -5983,7 +5996,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6012,7 +6025,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6023,7 +6036,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6035,13 +6048,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6092,19 +6105,19 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
@@ -6121,7 +6134,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6132,7 +6145,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6144,13 +6157,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6201,19 +6214,19 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
@@ -6222,7 +6235,7 @@
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6230,18 +6243,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6253,17 +6266,15 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6312,13 +6323,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6341,11 +6352,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6358,26 +6369,24 @@
         <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6425,7 +6434,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6446,7 +6455,7 @@
         <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -6454,39 +6463,43 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6534,13 +6547,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6555,7 +6568,7 @@
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6563,7 +6576,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6574,7 +6587,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6586,13 +6599,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6643,13 +6656,13 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
@@ -6672,7 +6685,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6683,7 +6696,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6695,13 +6708,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6752,13 +6765,13 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -6804,13 +6817,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6890,7 +6903,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6901,7 +6914,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -6913,13 +6926,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6970,19 +6983,19 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
@@ -6999,7 +7012,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7010,7 +7023,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7022,13 +7035,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7079,19 +7092,19 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>40</v>
@@ -7100,7 +7113,7 @@
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7108,18 +7121,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7131,17 +7144,15 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7190,13 +7201,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7219,11 +7230,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7236,26 +7247,24 @@
         <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7303,7 +7312,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7324,7 +7333,7 @@
         <v>40</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7332,39 +7341,43 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7412,13 +7425,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7433,7 +7446,7 @@
         <v>40</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7441,7 +7454,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7452,7 +7465,7 @@
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7464,13 +7477,13 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7521,13 +7534,13 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7550,7 +7563,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7561,7 +7574,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7573,13 +7586,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7606,37 +7619,37 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7659,7 +7672,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7667,7 +7680,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>48</v>
@@ -7679,16 +7692,16 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7715,13 +7728,13 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
@@ -7739,10 +7752,10 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>48</v>
@@ -7776,10 +7789,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -7788,16 +7801,16 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7851,16 +7864,16 @@
         <v>291</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
@@ -7877,7 +7890,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7888,7 +7901,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -7900,13 +7913,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7957,19 +7970,19 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
@@ -7978,7 +7991,7 @@
         <v>40</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -7986,18 +7999,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8009,17 +8022,15 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8068,13 +8079,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8097,11 +8108,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8114,26 +8125,24 @@
         <v>40</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8181,7 +8190,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8202,7 +8211,7 @@
         <v>40</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
@@ -8210,39 +8219,43 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8290,13 +8303,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8311,7 +8324,7 @@
         <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8319,7 +8332,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8330,7 +8343,7 @@
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
@@ -8342,13 +8355,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8399,13 +8412,13 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
@@ -8428,7 +8441,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8439,7 +8452,7 @@
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8451,13 +8464,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8484,13 +8497,13 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8508,13 +8521,13 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8537,7 +8550,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8563,10 +8576,10 @@
         <v>222</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8596,10 +8609,10 @@
         <v>225</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8617,7 +8630,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8646,7 +8659,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8654,11 +8667,11 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="F68" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8666,10 +8679,10 @@
         <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>307</v>
@@ -8702,13 +8715,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -8726,13 +8739,13 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -8763,7 +8776,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>42</v>
@@ -8775,7 +8788,7 @@
         <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>310</v>
@@ -8838,7 +8851,7 @@
         <v>309</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>42</v>
@@ -8887,13 +8900,13 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8956,7 +8969,7 @@
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>40</v>
@@ -8973,7 +8986,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8984,7 +8997,7 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -8996,13 +9009,13 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9053,19 +9066,19 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>40</v>
@@ -9074,7 +9087,7 @@
         <v>40</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9082,18 +9095,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>40</v>
@@ -9105,17 +9118,15 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9164,13 +9175,13 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
@@ -9193,11 +9204,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9210,26 +9221,24 @@
         <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9277,7 +9286,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9298,7 +9307,7 @@
         <v>40</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>40</v>
@@ -9306,39 +9315,43 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
       </c>
@@ -9386,13 +9399,13 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
@@ -9407,7 +9420,7 @@
         <v>40</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>40</v>
@@ -9415,7 +9428,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9426,7 +9439,7 @@
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
@@ -9438,13 +9451,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9495,13 +9508,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9524,7 +9537,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9535,7 +9548,7 @@
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>40</v>
@@ -9547,13 +9560,13 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9580,13 +9593,13 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
@@ -9604,13 +9617,13 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
@@ -9633,7 +9646,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9641,7 +9654,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>48</v>
@@ -9653,16 +9666,16 @@
         <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9689,13 +9702,13 @@
         <v>40</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>40</v>
@@ -9713,10 +9726,10 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>48</v>
@@ -9742,7 +9755,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9750,10 +9763,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>40</v>
@@ -9762,16 +9775,16 @@
         <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9822,19 +9835,19 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>40</v>
@@ -9851,7 +9864,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9862,7 +9875,7 @@
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>40</v>
@@ -9874,13 +9887,13 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9931,19 +9944,19 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
@@ -9952,7 +9965,7 @@
         <v>40</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
@@ -9960,18 +9973,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>40</v>
@@ -9983,17 +9996,15 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10042,13 +10053,13 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
@@ -10071,11 +10082,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10088,26 +10099,24 @@
         <v>40</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N81" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
       </c>
@@ -10155,7 +10164,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10176,7 +10185,7 @@
         <v>40</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -10184,39 +10193,43 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10264,13 +10277,13 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>327</v>
+        <v>196</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -10285,7 +10298,7 @@
         <v>40</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
@@ -10293,7 +10306,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10304,7 +10317,7 @@
         <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>40</v>
@@ -10316,13 +10329,13 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10373,13 +10386,13 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
@@ -10402,7 +10415,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10413,7 +10426,7 @@
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>40</v>
@@ -10425,13 +10438,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10458,13 +10471,13 @@
         <v>40</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>40</v>
@@ -10482,13 +10495,13 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
@@ -10511,7 +10524,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10537,10 +10550,10 @@
         <v>222</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10570,10 +10583,10 @@
         <v>225</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>40</v>
@@ -10591,7 +10604,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10620,7 +10633,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10631,7 +10644,7 @@
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
@@ -10643,13 +10656,13 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10676,13 +10689,13 @@
         <v>40</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>40</v>
@@ -10700,19 +10713,19 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>40</v>
@@ -10729,7 +10742,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10740,7 +10753,7 @@
         <v>41</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>40</v>
@@ -10752,13 +10765,13 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>186</v>
+        <v>337</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10809,19 +10822,19 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>187</v>
+        <v>335</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>40</v>
@@ -10830,7 +10843,7 @@
         <v>40</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>40</v>
@@ -10838,18 +10851,18 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>40</v>
@@ -10861,17 +10874,15 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>40</v>
@@ -10920,13 +10931,13 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>40</v>
@@ -10949,11 +10960,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -10966,26 +10977,24 @@
         <v>40</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N89" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>40</v>
       </c>
@@ -11033,7 +11042,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11054,7 +11063,7 @@
         <v>40</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>40</v>
@@ -11062,39 +11071,43 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
       </c>
@@ -11118,13 +11131,13 @@
         <v>40</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>40</v>
@@ -11142,13 +11155,13 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>337</v>
+        <v>196</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>40</v>
@@ -11163,7 +11176,7 @@
         <v>40</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>40</v>
@@ -11171,7 +11184,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11179,7 +11192,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>48</v>
@@ -11191,16 +11204,16 @@
         <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11227,13 +11240,13 @@
         <v>40</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>40</v>
@@ -11251,10 +11264,10 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>48</v>
@@ -11280,7 +11293,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11291,7 +11304,7 @@
         <v>48</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>40</v>
@@ -11303,13 +11316,13 @@
         <v>49</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11360,13 +11373,13 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>48</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>40</v>
@@ -11389,7 +11402,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11397,7 +11410,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>42</v>
@@ -11409,7 +11422,7 @@
         <v>40</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>310</v>
@@ -11469,10 +11482,10 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>42</v>
@@ -11493,6 +11506,115 @@
         <v>40</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>40</v>
       </c>
     </row>

--- a/image/evidence.xlsx
+++ b/image/evidence.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="301">
   <si>
     <t>Path</t>
   </si>
@@ -125,12 +125,12 @@
     <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
+    <t>Mapping: Object Implementation Information</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: Object Implementation Information</t>
-  </si>
-  <si>
     <t>Evidence</t>
   </si>
   <si>
@@ -143,10 +143,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>A collection of evidence focused statistics, considered a summary of evidence</t>
-  </si>
-  <si>
-    <t>The representation of a collection of statistics for a given population and set of evidence variables.</t>
+    <t>Single evidence bit</t>
+  </si>
+  <si>
+    <t>This represents statistics, certainty, both the intended and actual population, and evidence variables.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -375,10 +375,10 @@
     <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
   </si>
   <si>
+    <t>Definition.identifier</t>
+  </si>
+  <si>
     <t>no-gen-base</t>
-  </si>
-  <si>
-    <t>Definition.identifier</t>
   </si>
   <si>
     <t>Evidence.version</t>
@@ -418,24 +418,6 @@
     <t>Definition.title</t>
   </si>
   <si>
-    <t>Evidence.shortTitle</t>
-  </si>
-  <si>
-    <t>Shortened title for this summary</t>
-  </si>
-  <si>
-    <t>Shortened title for this summary.</t>
-  </si>
-  <si>
-    <t>Evidence.subTitle</t>
-  </si>
-  <si>
-    <t>Summary subtitle</t>
-  </si>
-  <si>
-    <t>Summary subtitle.</t>
-  </si>
-  <si>
     <t>Evidence.status</t>
   </si>
   <si>
@@ -470,7 +452,7 @@
 </t>
   </si>
   <si>
-    <t>Use contetxt</t>
+    <t>Use context</t>
   </si>
   <si>
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate evidence instances.</t>
@@ -488,8 +470,8 @@
     <t>Evidence.date</t>
   </si>
   <si>
-    <t>Revision Date
-Revision Date</t>
+    <t xml:space="preserve">Revision Date
+</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -511,84 +493,128 @@
     <t>FiveWs.recorded</t>
   </si>
   <si>
-    <t>Evidence.copyright</t>
-  </si>
-  <si>
-    <t>License
-Restrictions</t>
+    <t>Evidence.approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>When the summary was approved by publisher</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
+  </si>
+  <si>
+    <t>Definition.approvalDate</t>
+  </si>
+  <si>
+    <t>Evidence.lastReviewDate</t>
+  </si>
+  <si>
+    <t>When the summary was last reviewed</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>If specified, this date follows the original approval date.</t>
+  </si>
+  <si>
+    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
+  </si>
+  <si>
+    <t>Definition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>Evidence.contributor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributor
+</t>
+  </si>
+  <si>
+    <t>Contact detail and role for contributor to summary</t>
+  </si>
+  <si>
+    <t>Contact detail and role for contributor to summary.</t>
+  </si>
+  <si>
+    <t>Evidence.relatedArtifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelatedArtifact
+</t>
+  </si>
+  <si>
+    <t>Link or citation to artifact associated with the summary</t>
+  </si>
+  <si>
+    <t>Link or citation to artifact associated with the summary.</t>
+  </si>
+  <si>
+    <t>Evidence.description</t>
   </si>
   <si>
     <t xml:space="preserve">markdown
 </t>
   </si>
   <si>
-    <t>Summary copyright notice</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the evidence and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the evidence.</t>
-  </si>
-  <si>
-    <t>Consumers must be able to determine any legal restrictions on the use of the evidence and/or its content.</t>
-  </si>
-  <si>
-    <t>Definition.copyright</t>
-  </si>
-  <si>
-    <t>Evidence.approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
+    <t>Description of the particular summary</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the evidence from a consumer's perspective.</t>
+  </si>
+  <si>
+    <t>This description can be used to capture details such as why the evidence was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the evidence as conveyed in the 'text' field of the resource itself. This item SHOULD be populated unless the information is available from context (e.g. the language of the evidence is presumed to be the predominant language in the place the evidence was created).</t>
+  </si>
+  <si>
+    <t>Definition.description</t>
+  </si>
+  <si>
+    <t>Evidence.assertion</t>
+  </si>
+  <si>
+    <t>Declarative description of the Evidence</t>
+  </si>
+  <si>
+    <t>Declarative description of the Evidence.</t>
+  </si>
+  <si>
+    <t>Evidence.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>When the summary was approved by publisher</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
-  </si>
-  <si>
-    <t>Definition.approvalDate</t>
-  </si>
-  <si>
-    <t>Evidence.lastReviewDate</t>
-  </si>
-  <si>
-    <t>When the summary was last reviewed</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>If specified, this date follows the original approval date.</t>
-  </si>
-  <si>
-    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
-  </si>
-  <si>
-    <t>Definition.lastReviewDate</t>
-  </si>
-  <si>
-    <t>Evidence.summaryPublisher</t>
+    <t>Footnotes and/or explanatory notes</t>
+  </si>
+  <si>
+    <t>Footnotes and/or explanatory notes.</t>
+  </si>
+  <si>
+    <t>Evidence.referentGroup</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Evidence publisher</t>
-  </si>
-  <si>
-    <t>Evidence publisher.</t>
+    <t>Group being referenced</t>
+  </si>
+  <si>
+    <t>Group being referenced.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Evidence.summaryPublisher.id</t>
+    <t>Evidence.referentGroup.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -603,7 +629,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Evidence.summaryPublisher.extension</t>
+    <t>Evidence.referentGroup.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -612,7 +638,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Evidence.summaryPublisher.modifierExtension</t>
+    <t>Evidence.referentGroup.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -629,240 +655,67 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>Evidence.summaryPublisher.name</t>
-  </si>
-  <si>
-    <t>Publisher name</t>
-  </si>
-  <si>
-    <t>Publisher name.</t>
-  </si>
-  <si>
-    <t>Evidence.summaryPublisher.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactDetail
+    <t>Evidence.referentGroup.description</t>
+  </si>
+  <si>
+    <t>Textual description of referent group</t>
+  </si>
+  <si>
+    <t>Textual description of referent group.</t>
+  </si>
+  <si>
+    <t>Evidence.referentGroup.note</t>
+  </si>
+  <si>
+    <t>Evidence.referentGroup.evidenceSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Group|EvidenceSet)
 </t>
   </si>
   <si>
-    <t>Pubblisher contact information</t>
-  </si>
-  <si>
-    <t>Pubblisher contact information.</t>
-  </si>
-  <si>
-    <t>Evidence.contributor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contributor
+    <t>Various information categories of group</t>
+  </si>
+  <si>
+    <t>Various information categories of group.</t>
+  </si>
+  <si>
+    <t>Evidence.referentGroup.intendedGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Group)
 </t>
   </si>
   <si>
-    <t>Contact detail and role for contributor to summary</t>
-  </si>
-  <si>
-    <t>Contact detail and role for contributor to summary.</t>
-  </si>
-  <si>
-    <t>Evidence.relatedArtifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RelatedArtifact
-</t>
-  </si>
-  <si>
-    <t>Link or citation to artifact associated with the summary</t>
-  </si>
-  <si>
-    <t>Link or citation to artifact associated with the summary.</t>
-  </si>
-  <si>
-    <t>Evidence.description</t>
-  </si>
-  <si>
-    <t>Description of the particular summary</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the evidence from a consumer's perspective.</t>
-  </si>
-  <si>
-    <t>This description can be used to capture details such as why the evidence was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the evidence as conveyed in the 'text' field of the resource itself. This item SHOULD be populated unless the information is available from context (e.g. the language of the evidence is presumed to be the predominant language in the place the evidence was created).</t>
-  </si>
-  <si>
-    <t>Definition.description</t>
-  </si>
-  <si>
-    <t>Evidence.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Footnotes and/or explanatory notes</t>
-  </si>
-  <si>
-    <t>Footnotes and/or explanatory notes.</t>
-  </si>
-  <si>
-    <t>Evidence.synthesisType</t>
+    <t>Non-actual group that is a set of characteristics</t>
+  </si>
+  <si>
+    <t>Non-actual group that is a set of characteristics.</t>
+  </si>
+  <si>
+    <t>Evidence.referentGroup.directnessMatch</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>The particular type of synthesis if this is a synthesis summary</t>
-  </si>
-  <si>
-    <t>The particular type of synthesis if this is a synthesis summary.</t>
+    <t>low | moderate | high | exact</t>
+  </si>
+  <si>
+    <t>Indication of quality of match between intended group to actual group.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>Types of combining results from a body of evidence (eg. summary data meta-analysis).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/synthesis-type</t>
-  </si>
-  <si>
-    <t>Evidence.studyType</t>
-  </si>
-  <si>
-    <t>The type of study that produced this summary</t>
-  </si>
-  <si>
-    <t>The type of study that produced this summary.</t>
-  </si>
-  <si>
-    <t>The type of study a statistic was derived from.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/study-type</t>
-  </si>
-  <si>
-    <t>Evidence.population</t>
-  </si>
-  <si>
-    <t>The population being summarized</t>
-  </si>
-  <si>
-    <t>The population being summarized.</t>
-  </si>
-  <si>
-    <t>Evidence.population.id</t>
-  </si>
-  <si>
-    <t>Evidence.population.extension</t>
-  </si>
-  <si>
-    <t>Evidence.population.modifierExtension</t>
-  </si>
-  <si>
-    <t>Evidence.population.description</t>
-  </si>
-  <si>
-    <t>Textual description of population</t>
-  </si>
-  <si>
-    <t>Textual description of population.</t>
-  </si>
-  <si>
-    <t>Evidence.population.note</t>
-  </si>
-  <si>
-    <t>Evidence.population.intendedCohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Group)
-</t>
-  </si>
-  <si>
-    <t>Descriptive (not actual) expression of the population this evidence is about, eg inclusion criteria for research study</t>
-  </si>
-  <si>
-    <t>Descriptive (not actual) expression of the population this evidence is about, eg inclusion criteria for research study.</t>
-  </si>
-  <si>
-    <t>Evidence.population.sampleCohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Evidence)
-</t>
-  </si>
-  <si>
-    <t>Summary statistics describing the actual group for this population</t>
-  </si>
-  <si>
-    <t>Summary statistics describing the actual group for this population.</t>
-  </si>
-  <si>
-    <t>The target reference must conform to the CohortSummary profile.</t>
-  </si>
-  <si>
-    <t>Evidence.population.actualCohort</t>
-  </si>
-  <si>
-    <t>The actual group (ie list of members) for this population</t>
-  </si>
-  <si>
-    <t>The actual group (ie list of members) for this population.</t>
-  </si>
-  <si>
-    <t>Evidence.population.sampleSize</t>
-  </si>
-  <si>
-    <t>Sample size for the population</t>
-  </si>
-  <si>
-    <t>Sample size for the population.</t>
-  </si>
-  <si>
-    <t>Evidence.population.sampleSize.id</t>
-  </si>
-  <si>
-    <t>Evidence.population.sampleSize.extension</t>
-  </si>
-  <si>
-    <t>Evidence.population.sampleSize.modifierExtension</t>
-  </si>
-  <si>
-    <t>Evidence.population.sampleSize.description</t>
-  </si>
-  <si>
-    <t>Textual description of population sample</t>
-  </si>
-  <si>
-    <t>Textual description of population sample.</t>
-  </si>
-  <si>
-    <t>Evidence.population.sampleSize.note</t>
-  </si>
-  <si>
-    <t>Evidence.population.sampleSize.numberOfStudies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>Number of studies included in sample</t>
-  </si>
-  <si>
-    <t>Number of studies included in sample.</t>
-  </si>
-  <si>
-    <t>Evidence.population.sampleSize.numberOfParticipants</t>
-  </si>
-  <si>
-    <t>Total number of participants in sample</t>
-  </si>
-  <si>
-    <t>Total number of participants in sample.</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable</t>
+    <t>The quality of how direct the match is.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/directness</t>
+  </si>
+  <si>
+    <t>Evidence.variableDefinition</t>
   </si>
   <si>
     <t>Evidence variable</t>
@@ -871,16 +724,16 @@
     <t>Evidence variable.</t>
   </si>
   <si>
-    <t>Evidence.population.evidenceVariable.id</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.extension</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.modifierExtension</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.description</t>
+    <t>Evidence.variableDefinition.id</t>
+  </si>
+  <si>
+    <t>Evidence.variableDefinition.extension</t>
+  </si>
+  <si>
+    <t>Evidence.variableDefinition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Evidence.variableDefinition.description</t>
   </si>
   <si>
     <t>Description of the variable</t>
@@ -889,80 +742,83 @@
     <t>Description of the variable.</t>
   </si>
   <si>
-    <t>Evidence.population.evidenceVariable.note</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.variableRole</t>
-  </si>
-  <si>
-    <t>exposure | measuredVariable</t>
-  </si>
-  <si>
-    <t>exposure | measuredVariable.</t>
-  </si>
-  <si>
-    <t>The role that the evidence variable plays.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/variable-role|4.1.0</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.variableDefinition</t>
+    <t>Evidence.variableDefinition.note</t>
+  </si>
+  <si>
+    <t>Evidence.variableDefinition.variableRole</t>
+  </si>
+  <si>
+    <t>exposure | referenceExposure | measuredVariable | confounder</t>
+  </si>
+  <si>
+    <t>exposure | referenceExposure | measuredVariable | confounder.</t>
+  </si>
+  <si>
+    <t>The role that the assertion variable plays.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/variable-role</t>
+  </si>
+  <si>
+    <t>Evidence.variableDefinition.actualDefinition</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(EvidenceVariable)
 </t>
   </si>
   <si>
-    <t>Definition of a variable related to the statistic(s)</t>
-  </si>
-  <si>
-    <t>Definition of a variable related to the statistic(s).</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.statisticCollection</t>
-  </si>
-  <si>
-    <t>Set of statistics</t>
-  </si>
-  <si>
-    <t>Set of statistics.</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.statisticCollection.id</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.statisticCollection.extension</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.statisticCollection.modifierExtension</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.statisticCollection.description</t>
-  </si>
-  <si>
-    <t>Textual description related to the set of statistics</t>
-  </si>
-  <si>
-    <t>Textual description related to the set of statistics.</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.statisticCollection.note</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.statisticCollection.synthesisType</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.statisticCollection.studyType</t>
-  </si>
-  <si>
-    <t>The type of study</t>
-  </si>
-  <si>
-    <t>The type of study.</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.statisticCollection.statistic</t>
+    <t>Definition of the actual variable related to the statistic(s)</t>
+  </si>
+  <si>
+    <t>Definition of the actual variable related to the statistic(s).</t>
+  </si>
+  <si>
+    <t>Evidence.variableDefinition.intendedDefinition</t>
+  </si>
+  <si>
+    <t>Definition of the intended variable related to the Evidence</t>
+  </si>
+  <si>
+    <t>Definition of the intended variable related to the Evidence.</t>
+  </si>
+  <si>
+    <t>Evidence.variableDefinition.directnessMatch</t>
+  </si>
+  <si>
+    <t>Indication of quality of match between intended variable to actual variable.</t>
+  </si>
+  <si>
+    <t>Evidence.synthesisType</t>
+  </si>
+  <si>
+    <t>The particular type of synthesis if this is a synthesis summary</t>
+  </si>
+  <si>
+    <t>The particular type of synthesis if this is a synthesis summary.</t>
+  </si>
+  <si>
+    <t>Types of combining results from a body of evidence (eg. summary data meta-analysis).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/synthesis-type</t>
+  </si>
+  <si>
+    <t>Evidence.studyType</t>
+  </si>
+  <si>
+    <t>The type of study that produced this summary</t>
+  </si>
+  <si>
+    <t>The type of study that produced this summary.</t>
+  </si>
+  <si>
+    <t>The type of study a statistic was derived from.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/study-type</t>
+  </si>
+  <si>
+    <t>Evidence.statistic</t>
   </si>
   <si>
     <t xml:space="preserve">Statistic
@@ -972,10 +828,10 @@
     <t>Values and parameters for a single statistic</t>
   </si>
   <si>
-    <t>Values and parameters for a single statistic.</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.statisticCollection.distribution</t>
+    <t>The statistic value(s).</t>
+  </si>
+  <si>
+    <t>Evidence.distribution</t>
   </si>
   <si>
     <t xml:space="preserve">OrderedDistribution
@@ -985,91 +841,112 @@
     <t>An ordered group of statistics</t>
   </si>
   <si>
-    <t>An ordered group of statistics.</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable</t>
-  </si>
-  <si>
-    <t>An evidence variable, nested for denoting that statistics relate to both this variable and the previously noted variable</t>
-  </si>
-  <si>
-    <t>An evidence variable, nested for denoting that statistics relate to both this variable and the previously noted variable.</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.id</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.extension</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.modifierExtension</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.description</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.note</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.variableRole</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.variableDefinition</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.id</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.extension</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.modifierExtension</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.description</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.note</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.synthesisType</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.studyType</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.additionalVariable</t>
-  </si>
-  <si>
-    <t>An evidence variable, nested for denoting that statistics relate to this variable, any additional variables, plus the two previously noted variables</t>
-  </si>
-  <si>
-    <t>An evidence variable, nested for denoting that statistics relate to this variable, any additional variables, plus the two previously noted variables.</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.additionalVariable.id</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.additionalVariable.extension</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.additionalVariable.modifierExtension</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.additionalVariable.variableRole</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.additionalVariable.variableDefinition</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.statistic</t>
-  </si>
-  <si>
-    <t>Evidence.population.evidenceVariable.nestedVariable.statisticCollection.distribution</t>
+    <t>Ordered distribution.</t>
+  </si>
+  <si>
+    <t>Evidence.certainty</t>
+  </si>
+  <si>
+    <t>Level of certainty</t>
+  </si>
+  <si>
+    <t>Level of certainty.</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.id</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.extension</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.modifierExtension</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.description</t>
+  </si>
+  <si>
+    <t>Textual description of certainty</t>
+  </si>
+  <si>
+    <t>Textual description of certainty.</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.note</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.rating</t>
+  </si>
+  <si>
+    <t>Rating of certainty</t>
+  </si>
+  <si>
+    <t>Rating of certainty.</t>
+  </si>
+  <si>
+    <t>The relative quality of the statistic.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/certainty-rating</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.certaintySubcomponent</t>
+  </si>
+  <si>
+    <t>Subcomponent of certainty</t>
+  </si>
+  <si>
+    <t>Subcomponent of certainty.</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.certaintySubcomponent.id</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.certaintySubcomponent.extension</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.certaintySubcomponent.modifierExtension</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.certaintySubcomponent.description</t>
+  </si>
+  <si>
+    <t>Textual description of certainty subcomponent</t>
+  </si>
+  <si>
+    <t>Textual description of certainty subcomponent.</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.certaintySubcomponent.note</t>
+  </si>
+  <si>
+    <t>Textual note of certainty subcomponent</t>
+  </si>
+  <si>
+    <t>Textual note of certainty subcomponent.</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.certaintySubcomponent.type</t>
+  </si>
+  <si>
+    <t>The subcomponent classification of quality of evidence rating systems.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/certainty-subcomponent-type</t>
+  </si>
+  <si>
+    <t>Evidence.certainty.certaintySubcomponent.rating</t>
+  </si>
+  <si>
+    <t>Rating of certainty subcomponent</t>
+  </si>
+  <si>
+    <t>Rating of certainty subcomponent.</t>
+  </si>
+  <si>
+    <t>The quality rating of the subcomponent of a quality of evidence rating.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/certainty-subcomponent-rating</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM93"/>
+  <dimension ref="A1:AM62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1212,45 +1089,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="98.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="128.2421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="78.8125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="97.625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="78.31640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.0078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="50.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="23.71875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1469,16 +1346,16 @@
         <v>45</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -2028,10 +1905,10 @@
         <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -2139,10 +2016,10 @@
         <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -2250,10 +2127,10 @@
         <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM9" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -2363,10 +2240,10 @@
         <v>40</v>
       </c>
       <c r="AL10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM10" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -2476,7 +2353,7 @@
         <v>109</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>40</v>
@@ -2592,7 +2469,7 @@
         <v>117</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2700,7 +2577,7 @@
         <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2811,7 +2688,7 @@
         <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -2827,7 +2704,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>48</v>
@@ -2836,13 +2713,13 @@
         <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>131</v>
@@ -2850,7 +2727,9 @@
       <c r="L15" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2875,13 +2754,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -2902,7 +2781,7 @@
         <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>48</v>
@@ -2914,10 +2793,10 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2928,7 +2807,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2939,7 +2818,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -2948,19 +2827,23 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
       </c>
@@ -3008,13 +2891,13 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
@@ -3023,7 +2906,7 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -3037,15 +2920,15 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>48</v>
@@ -3054,22 +2937,22 @@
         <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3095,13 +2978,13 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -3119,10 +3002,10 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>48</v>
@@ -3134,13 +3017,13 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3148,7 +3031,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3159,7 +3042,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -3168,23 +3051,21 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3232,13 +3113,13 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3247,13 +3128,13 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3261,11 +3142,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3281,21 +3162,23 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3343,7 +3226,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3358,13 +3241,13 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3372,18 +3255,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -3395,18 +3278,16 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3454,13 +3335,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3469,7 +3350,7 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>40</v>
@@ -3478,12 +3359,12 @@
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3494,7 +3375,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3506,17 +3387,15 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3565,13 +3444,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3580,21 +3459,21 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3617,20 +3496,18 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3678,7 +3555,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3693,21 +3570,21 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3718,7 +3595,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3730,7 +3607,7 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>181</v>
@@ -3787,19 +3664,19 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
@@ -3816,7 +3693,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3827,7 +3704,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3839,7 +3716,7 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>185</v>
@@ -3896,13 +3773,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -3917,7 +3794,7 @@
         <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -3925,18 +3802,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -3945,20 +3822,18 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>96</v>
-      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4007,20 +3882,20 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4028,7 +3903,7 @@
         <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -4040,39 +3915,35 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4120,31 +3991,31 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -4153,14 +4024,14 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4169,18 +4040,20 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4229,13 +4102,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4253,7 +4126,7 @@
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
@@ -4262,7 +4135,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4275,13 +4148,13 @@
         <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>202</v>
@@ -4289,8 +4162,12 @@
       <c r="L28" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4338,7 +4215,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4362,12 +4239,12 @@
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4378,7 +4255,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4390,7 +4267,7 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>206</v>
@@ -4447,13 +4324,13 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4499,13 +4376,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4585,7 +4462,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4593,7 +4470,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>48</v>
@@ -4605,20 +4482,18 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4667,10 +4542,10 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>48</v>
@@ -4682,7 +4557,7 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
@@ -4696,7 +4571,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4707,7 +4582,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4719,13 +4594,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4776,13 +4651,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4805,7 +4680,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4828,13 +4703,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4861,13 +4736,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -4885,7 +4760,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4914,7 +4789,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4925,7 +4800,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4937,13 +4812,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4970,13 +4845,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4994,19 +4869,19 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
@@ -5023,7 +4898,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5031,11 +4906,11 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5043,16 +4918,16 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5103,19 +4978,19 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
@@ -5127,23 +5002,23 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5155,15 +5030,17 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5212,13 +5089,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5233,19 +5110,19 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5258,24 +5135,26 @@
         <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5323,7 +5202,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5344,51 +5223,47 @@
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5436,13 +5311,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5457,7 +5332,7 @@
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5465,7 +5340,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5476,7 +5351,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5488,13 +5363,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5545,13 +5420,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5574,7 +5449,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5585,7 +5460,7 @@
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5600,10 +5475,10 @@
         <v>218</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5630,13 +5505,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5654,13 +5529,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5683,7 +5558,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5691,7 +5566,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>48</v>
@@ -5703,16 +5578,16 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5763,10 +5638,10 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>48</v>
@@ -5792,7 +5667,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5815,17 +5690,15 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5874,7 +5747,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5903,7 +5776,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5926,13 +5799,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5959,13 +5832,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -5983,7 +5856,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6012,7 +5885,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6023,7 +5896,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6035,13 +5908,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6068,13 +5941,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6092,19 +5965,19 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
@@ -6121,7 +5994,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6144,13 +6017,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6177,13 +6050,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6201,7 +6074,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6222,7 +6095,7 @@
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6230,11 +6103,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6253,17 +6126,15 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6312,7 +6183,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6333,7 +6204,7 @@
         <v>40</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
@@ -6341,11 +6212,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6358,26 +6229,22 @@
         <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6425,7 +6292,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6446,7 +6313,7 @@
         <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -6454,7 +6321,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6465,7 +6332,7 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6477,13 +6344,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6534,19 +6401,19 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>40</v>
@@ -6563,7 +6430,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6574,7 +6441,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6586,13 +6453,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6643,13 +6510,13 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
@@ -6667,23 +6534,23 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6695,15 +6562,17 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>267</v>
+        <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6752,13 +6621,13 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -6776,44 +6645,48 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -6861,13 +6734,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -6885,7 +6758,7 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
@@ -6901,7 +6774,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -6913,7 +6786,7 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>273</v>
@@ -6976,13 +6849,13 @@
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
@@ -7022,7 +6895,7 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>185</v>
@@ -7079,7 +6952,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7100,7 +6973,7 @@
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7112,7 +6985,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7131,17 +7004,15 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>94</v>
+        <v>277</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7166,13 +7037,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7190,7 +7061,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7211,7 +7082,7 @@
         <v>40</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
@@ -7219,11 +7090,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7236,26 +7107,22 @@
         <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7303,7 +7170,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>196</v>
+        <v>281</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7315,7 +7182,7 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
@@ -7324,7 +7191,7 @@
         <v>40</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7332,7 +7199,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7355,13 +7222,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>279</v>
+        <v>193</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7412,7 +7279,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7436,16 +7303,16 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7464,15 +7331,17 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7521,7 +7390,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7545,44 +7414,48 @@
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7606,13 +7479,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
@@ -7630,13 +7503,13 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7654,7 +7527,7 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
@@ -7667,7 +7540,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>48</v>
@@ -7679,16 +7552,16 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7742,7 +7615,7 @@
         <v>287</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>48</v>
@@ -7768,7 +7641,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7779,7 +7652,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -7791,13 +7664,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7848,19 +7721,19 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
@@ -7877,7 +7750,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7888,7 +7761,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -7900,7 +7773,7 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>185</v>
@@ -7933,13 +7806,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -7957,13 +7830,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -7978,7 +7851,7 @@
         <v>40</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -7986,11 +7859,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8009,17 +7882,15 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>94</v>
+        <v>297</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8044,13 +7915,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -8068,7 +7939,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8089,3410 +7960,9 @@
         <v>40</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM93" t="s" s="2">
         <v>40</v>
       </c>
     </row>

--- a/image/evidence.xlsx
+++ b/image/evidence.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="300">
   <si>
     <t>Path</t>
   </si>
@@ -670,21 +670,17 @@
     <t>Evidence.referentGroup.evidenceSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|EvidenceSet)
-</t>
-  </si>
-  <si>
-    <t>Various information categories of group</t>
-  </si>
-  <si>
-    <t>Various information categories of group.</t>
-  </si>
-  <si>
-    <t>Evidence.referentGroup.intendedGroup</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(Group)
 </t>
+  </si>
+  <si>
+    <t>Various information categories of group</t>
+  </si>
+  <si>
+    <t>Various information categories of group.</t>
+  </si>
+  <si>
+    <t>Evidence.referentGroup.intendedGroup</t>
   </si>
   <si>
     <t>Non-actual group that is a set of characteristics</t>
@@ -4594,13 +4590,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4680,7 +4676,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4703,13 +4699,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4736,14 +4732,14 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4760,7 +4756,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4789,7 +4785,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4815,10 +4811,10 @@
         <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4869,7 +4865,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4898,7 +4894,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5007,7 +5003,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5118,7 +5114,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5231,7 +5227,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5257,10 +5253,10 @@
         <v>175</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5311,7 +5307,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5340,7 +5336,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5420,7 +5416,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5449,7 +5445,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5472,13 +5468,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5505,14 +5501,14 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5529,7 +5525,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5558,7 +5554,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5581,13 +5577,13 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5638,7 +5634,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>48</v>
@@ -5667,7 +5663,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5690,13 +5686,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5747,7 +5743,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5776,7 +5772,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5799,13 +5795,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="L43" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5832,14 +5828,14 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="X43" t="s" s="2">
+      <c r="Y43" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5856,7 +5852,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5885,7 +5881,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5908,13 +5904,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5941,14 +5937,14 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
       </c>
@@ -5965,7 +5961,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -5994,7 +5990,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6017,13 +6013,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6050,14 +6046,14 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6074,7 +6070,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6103,7 +6099,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6126,13 +6122,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6183,7 +6179,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6212,7 +6208,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6235,13 +6231,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6292,7 +6288,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6321,7 +6317,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6347,10 +6343,10 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6401,7 +6397,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6430,7 +6426,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6539,7 +6535,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6650,7 +6646,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6763,7 +6759,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6789,10 +6785,10 @@
         <v>119</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6843,7 +6839,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6872,7 +6868,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6952,7 +6948,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -6981,7 +6977,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7004,13 +7000,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7037,14 +7033,14 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7061,7 +7057,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7090,7 +7086,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7116,10 +7112,10 @@
         <v>188</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7170,7 +7166,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7199,7 +7195,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7308,7 +7304,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7419,7 +7415,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7532,7 +7528,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7558,10 +7554,10 @@
         <v>119</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7612,7 +7608,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7641,7 +7637,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7667,10 +7663,10 @@
         <v>184</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7721,7 +7717,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7750,7 +7746,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7773,7 +7769,7 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>185</v>
@@ -7806,14 +7802,14 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
       </c>
@@ -7830,7 +7826,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -7859,7 +7855,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7882,13 +7878,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7915,14 +7911,14 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
       </c>
@@ -7939,7 +7935,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>

--- a/image/evidence.xlsx
+++ b/image/evidence.xlsx
@@ -4466,7 +4466,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>48</v>
@@ -4478,7 +4478,7 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>210</v>
@@ -4541,7 +4541,7 @@
         <v>209</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>48</v>

--- a/image/evidence.xlsx
+++ b/image/evidence.xlsx
@@ -1085,45 +1085,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.4765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="78.31640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.0078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="50.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="78.8125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.5703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="49.25" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>48</v>
@@ -5637,7 +5637,7 @@
         <v>238</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>48</v>

--- a/image/evidence.xlsx
+++ b/image/evidence.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="299">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -382,10 +382,6 @@
   </si>
   <si>
     <t>Evidence.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of this summary</t>
@@ -2493,16 +2489,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2567,10 +2563,10 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2581,7 +2577,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2604,16 +2600,16 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2663,7 +2659,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2678,7 +2674,7 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -2692,7 +2688,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2718,13 +2714,13 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2750,14 +2746,14 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
       </c>
@@ -2774,7 +2770,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>48</v>
@@ -2789,10 +2785,10 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2803,7 +2799,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2826,19 +2822,19 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2887,7 +2883,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2902,7 +2898,7 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -2916,11 +2912,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2939,16 +2935,16 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2998,7 +2994,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3013,10 +3009,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3027,7 +3023,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3050,16 +3046,16 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3109,7 +3105,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3124,7 +3120,7 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -3138,7 +3134,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3161,19 +3157,19 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3222,7 +3218,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3237,7 +3233,7 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -3251,7 +3247,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3274,13 +3270,13 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3331,7 +3327,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3360,7 +3356,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3383,13 +3379,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3440,7 +3436,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3469,7 +3465,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3492,16 +3488,16 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3551,7 +3547,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3566,7 +3562,7 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -3580,7 +3576,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3603,13 +3599,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3660,7 +3656,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3689,7 +3685,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3712,13 +3708,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3769,7 +3765,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3798,7 +3794,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3821,13 +3817,13 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3878,7 +3874,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>48</v>
@@ -3890,7 +3886,7 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
@@ -3907,7 +3903,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3930,13 +3926,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3987,7 +3983,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4011,12 +4007,12 @@
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4045,7 +4041,7 @@
         <v>94</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>96</v>
@@ -4098,7 +4094,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4122,16 +4118,16 @@
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4153,10 +4149,10 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>96</v>
@@ -4211,7 +4207,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4240,7 +4236,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4263,13 +4259,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4320,7 +4316,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4349,7 +4345,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4372,13 +4368,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4429,7 +4425,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4458,7 +4454,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4481,13 +4477,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4538,7 +4534,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4567,7 +4563,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4590,13 +4586,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4647,7 +4643,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4676,7 +4672,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4699,13 +4695,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4732,14 +4728,14 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4756,7 +4752,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4785,7 +4781,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4808,13 +4804,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4865,7 +4861,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4877,7 +4873,7 @@
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
@@ -4894,7 +4890,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4917,13 +4913,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4974,7 +4970,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4998,12 +4994,12 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5032,7 +5028,7 @@
         <v>94</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>96</v>
@@ -5085,7 +5081,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5109,16 +5105,16 @@
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5140,10 +5136,10 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>96</v>
@@ -5198,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5227,7 +5223,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5250,13 +5246,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5307,7 +5303,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5336,7 +5332,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5359,13 +5355,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5416,7 +5412,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5445,7 +5441,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5468,13 +5464,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5501,14 +5497,14 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5525,7 +5521,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5554,7 +5550,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5577,13 +5573,13 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5634,7 +5630,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5663,7 +5659,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5686,13 +5682,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5743,7 +5739,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5772,7 +5768,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5795,13 +5791,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="L43" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5828,14 +5824,14 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="X43" t="s" s="2">
+      <c r="Y43" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5852,7 +5848,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5881,7 +5877,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5904,13 +5900,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5937,14 +5933,14 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
       </c>
@@ -5961,7 +5957,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -5990,7 +5986,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6013,13 +6009,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6046,14 +6042,14 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6070,7 +6066,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6099,7 +6095,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6122,13 +6118,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6179,7 +6175,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6208,7 +6204,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6231,13 +6227,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6288,7 +6284,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6317,7 +6313,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6340,13 +6336,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6397,7 +6393,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6409,7 +6405,7 @@
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>40</v>
@@ -6426,7 +6422,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6449,13 +6445,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6506,7 +6502,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6530,12 +6526,12 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6564,7 +6560,7 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>96</v>
@@ -6617,7 +6613,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6641,16 +6637,16 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6672,10 +6668,10 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>96</v>
@@ -6730,7 +6726,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6759,7 +6755,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6782,13 +6778,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6839,7 +6835,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6868,7 +6864,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6891,13 +6887,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6948,7 +6944,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -6977,7 +6973,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7000,13 +6996,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7033,14 +7029,14 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7057,7 +7053,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7086,7 +7082,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7109,13 +7105,13 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7166,7 +7162,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7178,7 +7174,7 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
@@ -7195,7 +7191,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7218,13 +7214,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7275,7 +7271,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7299,12 +7295,12 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7333,7 +7329,7 @@
         <v>94</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>96</v>
@@ -7386,7 +7382,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7410,16 +7406,16 @@
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7441,10 +7437,10 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>96</v>
@@ -7499,7 +7495,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7528,7 +7524,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7551,13 +7547,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7608,7 +7604,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7637,7 +7633,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7660,13 +7656,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7717,7 +7713,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7746,7 +7742,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7769,13 +7765,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7802,14 +7798,14 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
       </c>
@@ -7826,7 +7822,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -7855,7 +7851,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7878,13 +7874,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7911,14 +7907,14 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
       </c>
@@ -7935,7 +7931,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
